--- a/数据整理/stocks/A股/上证主板/605305-中际联合.xlsx
+++ b/数据整理/stocks/A股/上证主板/605305-中际联合.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1275,4 +1276,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605305-中际联合.xlsx
+++ b/数据整理/stocks/A股/上证主板/605305-中际联合.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1284,7 +1285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1295,17 +1296,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1315,14 +1336,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.14</v>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5655</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1331,13 +1374,537 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605305-中际联合.xlsx
+++ b/数据整理/stocks/A股/上证主板/605305-中际联合.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1835,7 +1836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1846,17 +1847,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1866,14 +1887,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.66</v>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1882,14 +1925,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.14</v>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1898,13 +1963,435 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605305-中际联合.xlsx
+++ b/数据整理/stocks/A股/上证主板/605305-中际联合.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2306,7 +2307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2317,17 +2318,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2337,14 +2358,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.95</v>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2353,14 +2396,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.66</v>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2369,14 +2434,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.14</v>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2385,13 +2472,377 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008547</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道安远6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605305-中际联合.xlsx
+++ b/数据整理/stocks/A股/上证主板/605305-中际联合.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>1.66</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>2.14</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -566,6 +583,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012665</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保裕祥混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012666</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保裕祥混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -999,7 +1412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1469,7 +1882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2019,7 +2432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2531,7 +2944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/605305-中际联合.xlsx
+++ b/数据整理/stocks/A股/上证主板/605305-中际联合.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>1.66</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>2.14</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -583,6 +600,364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -978,7 +1353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1412,7 +1787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1882,7 +2257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2432,7 +2807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2944,7 +3319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
